--- a/Manual Testing/Project/Tace case.xlsx
+++ b/Manual Testing/Project/Tace case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97868E19-6814-4635-9CEF-3E4E642B89F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C73D62-157B-4402-B984-A5DC3F049F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,12 +251,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,9 +291,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,61 +658,61 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Manual Testing/Project/Tace case.xlsx
+++ b/Manual Testing/Project/Tace case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C73D62-157B-4402-B984-A5DC3F049F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F0201-A5E7-442F-90DE-06FDECC03575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>TC</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Actual Outcome/Result</t>
-  </si>
-  <si>
-    <t>Post Conditions(Pass/Fail)</t>
   </si>
   <si>
     <t>TC1</t>
@@ -230,6 +227,63 @@
   </si>
   <si>
     <t>When entering alphabatic value intead of mobile an error occurs</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location:-mumbai</t>
+  </si>
+  <si>
+    <t>Search location</t>
+  </si>
+  <si>
+    <t>Verify that user can able to search and set the location manualy</t>
+  </si>
+  <si>
+    <t>Detect current location</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>GPS Auto detect location</t>
+  </si>
+  <si>
+    <t>Verify that user can able to set their location by gps</t>
+  </si>
+  <si>
+    <t>Test case Result</t>
+  </si>
+  <si>
+    <t>Recent Location</t>
+  </si>
+  <si>
+    <t>select location from Recent Location</t>
+  </si>
+  <si>
+    <t>Maninagar,pushpakunj</t>
+  </si>
+  <si>
+    <t>Verify that user can able to  select any one location from the recent location</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Search bar</t>
+  </si>
+  <si>
+    <t>resturent &amp; dish</t>
+  </si>
+  <si>
+    <t>search bar :#$%^&amp;*()(*&amp;^%$#@!</t>
+  </si>
+  <si>
+    <t>Check that you do not need restaurant and dish space to be special characters</t>
   </si>
 </sst>
 </file>
@@ -582,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,340 +680,446 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="1"/>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Manual Testing/Project/Tace case.xlsx
+++ b/Manual Testing/Project/Tace case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F0201-A5E7-442F-90DE-06FDECC03575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEABAB5-B03A-41D5-BAF0-A7603F264A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
